--- a/Intelligent Wire/SOLVE/Spreadsheets/SOLVE.xlsx
+++ b/Intelligent Wire/SOLVE/Spreadsheets/SOLVE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26661AA-D5C4-41EC-B63B-B17DA3C7A8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A6A3F0-5745-4A77-A733-20A061CE79D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1455" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="630" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOLVE" sheetId="1" r:id="rId1"/>
@@ -1631,10 +1631,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
